--- a/image/researchstudy.xlsx
+++ b/image/researchstudy.xlsx
@@ -1146,46 +1146,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="214.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="213.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.33203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.01171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="199.203125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="177.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="203.48828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="177.2109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/researchstudy.xlsx
+++ b/image/researchstudy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="318">
   <si>
     <t>Path</t>
   </si>
@@ -182,7 +182,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>ResearchStudy.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name for this study</t>
@@ -1146,46 +1142,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.2734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="213.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="214.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.01171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.33203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="203.48828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="177.2109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="199.203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="177.171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2475,13 +2471,13 @@
         <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2547,16 +2543,16 @@
         <v>44</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2564,7 +2560,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2587,13 +2583,13 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2644,7 +2640,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2659,16 +2655,16 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2676,11 +2672,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2699,17 +2695,17 @@
         <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -2758,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2773,13 +2769,13 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -2790,7 +2786,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2816,10 +2812,10 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2846,14 +2842,14 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>44</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>53</v>
@@ -2885,24 +2881,24 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2925,13 +2921,13 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2958,14 +2954,14 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
       </c>
@@ -2982,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2997,7 +2993,7 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>44</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3037,13 +3033,13 @@
         <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3070,14 +3066,14 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3094,7 +3090,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3109,16 +3105,16 @@
         <v>44</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3126,7 +3122,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3149,13 +3145,13 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3182,10 +3178,10 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>44</v>
@@ -3206,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3221,16 +3217,16 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3238,7 +3234,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3261,13 +3257,13 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3294,10 +3290,10 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>44</v>
@@ -3318,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3333,24 +3329,24 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3373,13 +3369,13 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3406,14 +3402,14 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3430,7 +3426,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3445,24 +3441,24 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3485,13 +3481,13 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3542,7 +3538,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3557,16 +3553,16 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3574,7 +3570,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3597,13 +3593,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3654,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3669,16 +3665,16 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3686,7 +3682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3709,13 +3705,13 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3742,10 +3738,10 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>44</v>
@@ -3766,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3781,16 +3777,16 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -3798,7 +3794,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3821,13 +3817,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3854,14 +3850,14 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
       </c>
@@ -3878,7 +3874,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3893,7 +3889,7 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -3910,7 +3906,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3933,13 +3929,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3990,7 +3986,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4005,16 +4001,16 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4022,11 +4018,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4045,16 +4041,16 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4104,7 +4100,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4119,28 +4115,28 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4159,13 +4155,13 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4216,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4231,24 +4227,24 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4271,13 +4267,13 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4328,7 +4324,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4343,24 +4339,24 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4383,13 +4379,13 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4440,7 +4436,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4455,24 +4451,24 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4495,13 +4491,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4552,7 +4548,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4567,24 +4563,24 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4607,13 +4603,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4640,14 +4636,14 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4664,7 +4660,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4679,24 +4675,24 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4719,13 +4715,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4776,7 +4772,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4791,13 +4787,13 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -4808,7 +4804,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4831,13 +4827,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4888,7 +4884,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4900,19 +4896,19 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -4920,7 +4916,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4943,13 +4939,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5000,7 +4996,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5021,7 +5017,7 @@
         <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5032,7 +5028,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5061,7 +5057,7 @@
         <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>101</v>
@@ -5114,7 +5110,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5135,7 +5131,7 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5146,11 +5142,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5172,10 +5168,10 @@
         <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>101</v>
@@ -5230,7 +5226,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5262,7 +5258,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5285,13 +5281,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5342,7 +5338,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>53</v>
@@ -5357,16 +5353,16 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5374,7 +5370,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5397,13 +5393,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5454,7 +5450,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5469,16 +5465,16 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5486,7 +5482,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5509,13 +5505,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5566,7 +5562,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5581,16 +5577,16 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5598,7 +5594,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5621,13 +5617,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5678,7 +5674,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5690,10 +5686,10 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -5710,7 +5706,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5733,13 +5729,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5790,7 +5786,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5811,7 +5807,7 @@
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -5822,7 +5818,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5851,7 +5847,7 @@
         <v>99</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>101</v>
@@ -5904,7 +5900,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5925,7 +5921,7 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -5936,11 +5932,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5962,10 +5958,10 @@
         <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>101</v>
@@ -6020,7 +6016,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6052,7 +6048,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6075,13 +6071,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6132,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6147,7 +6143,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6164,7 +6160,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6187,13 +6183,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6223,11 +6219,11 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6259,7 +6255,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
